--- a/Buku Akhir/Hasil Perhitungan.xlsx
+++ b/Buku Akhir/Hasil Perhitungan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>Pagi</t>
   </si>
@@ -121,19 +121,49 @@
   </si>
   <si>
     <t>125924</t>
+  </si>
+  <si>
+    <t>Waktu</t>
+  </si>
+  <si>
+    <t>Kordinat</t>
+  </si>
+  <si>
+    <t>Kecepatan</t>
+  </si>
+  <si>
+    <t>(Km/H)</t>
+  </si>
+  <si>
+    <t>Bx</t>
+  </si>
+  <si>
+    <t>By</t>
+  </si>
+  <si>
+    <t>Ex</t>
+  </si>
+  <si>
+    <t>Ey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -152,14 +182,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -745,7 +905,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="17" spans="3:8">
+    <row r="17" spans="2:15">
       <c r="C17">
         <v>2</v>
       </c>
@@ -765,8 +925,515 @@
         <v>5.87</v>
       </c>
     </row>
+    <row r="21" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="22" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>215</v>
+      </c>
+      <c r="E24" s="4">
+        <v>65</v>
+      </c>
+      <c r="F24" s="4">
+        <v>205</v>
+      </c>
+      <c r="G24" s="4">
+        <v>181</v>
+      </c>
+      <c r="H24" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="J24">
+        <f>ABS(H24-5.79)</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="K24">
+        <f>(J24/5.79)*100</f>
+        <v>5.0086355785837657</v>
+      </c>
+      <c r="L24">
+        <f>100-K24</f>
+        <v>94.991364421416236</v>
+      </c>
+      <c r="N24" s="12">
+        <v>95</v>
+      </c>
+      <c r="O24" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B25" s="7"/>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>216</v>
+      </c>
+      <c r="E25" s="4">
+        <v>64</v>
+      </c>
+      <c r="F25" s="4">
+        <v>208</v>
+      </c>
+      <c r="G25" s="4">
+        <v>180</v>
+      </c>
+      <c r="H25" s="5">
+        <v>5.85</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J37" si="0">ABS(H25-5.79)</f>
+        <v>5.9999999999999609E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:K37" si="1">(J25/5.79)*100</f>
+        <v>1.0362694300518067</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25:L37" si="2">100-K25</f>
+        <v>98.963730569948197</v>
+      </c>
+      <c r="N25" s="11">
+        <v>99</v>
+      </c>
+      <c r="O25" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>218</v>
+      </c>
+      <c r="E26" s="4">
+        <v>107</v>
+      </c>
+      <c r="F26" s="4">
+        <v>218</v>
+      </c>
+      <c r="G26" s="4">
+        <v>194</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5.73</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999609E-2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>1.0362694300518067</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>98.963730569948197</v>
+      </c>
+      <c r="N26" s="11">
+        <v>99</v>
+      </c>
+      <c r="O26" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B27" s="7"/>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>220</v>
+      </c>
+      <c r="E27" s="4">
+        <v>128</v>
+      </c>
+      <c r="F27" s="4">
+        <v>215</v>
+      </c>
+      <c r="G27" s="4">
+        <v>214</v>
+      </c>
+      <c r="H27" s="5">
+        <v>5.34</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>7.7720207253886038</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>92.2279792746114</v>
+      </c>
+      <c r="N27" s="11">
+        <v>92</v>
+      </c>
+      <c r="O27" s="11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>202</v>
+      </c>
+      <c r="E28" s="4">
+        <v>81</v>
+      </c>
+      <c r="F28" s="4">
+        <v>196</v>
+      </c>
+      <c r="G28" s="4">
+        <v>185</v>
+      </c>
+      <c r="H28" s="5">
+        <v>5.37</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>7.2538860103626934</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>92.746113989637308</v>
+      </c>
+      <c r="N28" s="11">
+        <v>92</v>
+      </c>
+      <c r="O28" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B29" s="7"/>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4">
+        <v>222</v>
+      </c>
+      <c r="E29" s="4">
+        <v>87</v>
+      </c>
+      <c r="F29" s="4">
+        <v>217</v>
+      </c>
+      <c r="G29" s="4">
+        <v>194</v>
+      </c>
+      <c r="H29" s="5">
+        <v>5.47</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.32000000000000028</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>5.5267702936096761</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>94.473229706390327</v>
+      </c>
+      <c r="N29" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="31" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31">
+        <f>AVERAGE(N24:N29)</f>
+        <v>95.166666666666671</v>
+      </c>
+      <c r="O31">
+        <f>AVERAGE(O24:O28)</f>
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>211</v>
+      </c>
+      <c r="E33" s="4">
+        <v>69</v>
+      </c>
+      <c r="F33" s="4">
+        <v>216</v>
+      </c>
+      <c r="G33" s="4">
+        <v>136</v>
+      </c>
+      <c r="H33" s="5">
+        <v>5.32</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0.46999999999999975</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>8.1174438687392012</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>91.882556131260799</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B34" s="7"/>
+      <c r="C34" s="4">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>173</v>
+      </c>
+      <c r="E34" s="4">
+        <v>69</v>
+      </c>
+      <c r="F34" s="4">
+        <v>244</v>
+      </c>
+      <c r="G34" s="4">
+        <v>147</v>
+      </c>
+      <c r="H34" s="5">
+        <v>5.45</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>5.8721934369602744</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>94.127806563039726</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>186</v>
+      </c>
+      <c r="E35" s="4">
+        <v>73</v>
+      </c>
+      <c r="F35" s="4">
+        <v>243</v>
+      </c>
+      <c r="G35" s="4">
+        <v>135</v>
+      </c>
+      <c r="H35" s="5">
+        <v>5.22</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0.57000000000000028</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>9.8445595854922328</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>90.155440414507765</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>168</v>
+      </c>
+      <c r="E36" s="4">
+        <v>159</v>
+      </c>
+      <c r="F36" s="4">
+        <v>237</v>
+      </c>
+      <c r="G36" s="4">
+        <v>134</v>
+      </c>
+      <c r="H36" s="5">
+        <v>5.52</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0.27000000000000046</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>4.6632124352331692</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>95.336787564766837</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B37" s="7"/>
+      <c r="C37" s="4">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4">
+        <v>182</v>
+      </c>
+      <c r="E37" s="4">
+        <v>87</v>
+      </c>
+      <c r="F37" s="4">
+        <v>242</v>
+      </c>
+      <c r="G37" s="4">
+        <v>154</v>
+      </c>
+      <c r="H37" s="5">
+        <v>5.87</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>1.381692573402419</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>98.618307426597582</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1065,7 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="A69" sqref="A69:A101"/>
     </sheetView>
   </sheetViews>
